--- a/data/trans_bre/P59A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P59A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,34%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 0,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; -0,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 0,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,27; 0,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,56; 2,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,61; -4,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,14; 10,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,1; 4,65</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,91%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 1,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 5,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; 1,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 1,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,84; 11,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; 40,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,94; 7,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,85; 10,15</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 5,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,12; 11,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,15; 3,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,79; 6,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,44; 39,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,11; 76,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,54; 21,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,63; 46,16</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,96%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; -0,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,98; 1,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; -0,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; -0,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,84; -6,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,89; 14,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,31; -4,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,74; -0,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P59A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,38</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-45,34%</t>
+          <t>-44,03%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 0,14</t>
+          <t>-10,77; 0,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,1; 4,65</t>
+          <t>-69,92; 5,81</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-13,91%</t>
+          <t>-15,37%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 1,4</t>
+          <t>-6,85; 1,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 10,15</t>
+          <t>-36,78; 9,59</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>6,78%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 6,93</t>
+          <t>-5,91; 7,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 46,16</t>
+          <t>-25,97; 53,01</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,96%</t>
+          <t>-17,62%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -0,16</t>
+          <t>-5,86; -0,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,74; -0,74</t>
+          <t>-33,17; 0,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P59A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 0,09</t>
+          <t>-6,81; 0,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -0,66</t>
+          <t>-9,29; -0,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,53</t>
+          <t>-7,72; 0,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 0,19</t>
+          <t>-10,45; -0,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,56; 2,37</t>
+          <t>-66,58; 4,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,61; -4,91</t>
+          <t>-62,99; -0,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 10,01</t>
+          <t>-63,65; 13,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,92; 5,81</t>
+          <t>-69,85; 5,95</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,35</t>
+          <t>-6,39; 1,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,49</t>
+          <t>-2,07; 5,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,22</t>
+          <t>-5,79; 1,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,32</t>
+          <t>-6,75; 1,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 11,76</t>
+          <t>-38,38; 8,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 40,18</t>
+          <t>-12,55; 42,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 7,01</t>
+          <t>-28,4; 9,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 9,59</t>
+          <t>-36,98; 6,72</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 5,82</t>
+          <t>-8,48; 6,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 11,41</t>
+          <t>-6,45; 11,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 3,33</t>
+          <t>-11,51; 2,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 7,92</t>
+          <t>-5,24; 7,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,44; 39,73</t>
+          <t>-37,7; 41,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 76,05</t>
+          <t>-28,72; 78,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 21,08</t>
+          <t>-46,17; 16,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,97; 53,01</t>
+          <t>-23,45; 54,36</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -0,77</t>
+          <t>-6,06; -0,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,99</t>
+          <t>-3,78; 2,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,7</t>
+          <t>-6,02; -0,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,86; -0,01</t>
+          <t>-6,01; 0,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,84; -6,04</t>
+          <t>-39,67; -7,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 14,32</t>
+          <t>-22,8; 15,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,31; -4,26</t>
+          <t>-31,49; -3,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 0,24</t>
+          <t>-33,25; 0,87</t>
         </is>
       </c>
     </row>
